--- a/data/processed/education.xlsx
+++ b/data/processed/education.xlsx
@@ -19,7 +19,7 @@
     <t>time</t>
   </si>
   <si>
-    <t>value</t>
+    <t>education</t>
   </si>
 </sst>
 </file>
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C337"/>
+  <dimension ref="A1:C325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -400,10 +400,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>34335</v>
+        <v>34700</v>
       </c>
       <c r="C2">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -411,10 +411,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>34366</v>
+        <v>34731</v>
       </c>
       <c r="C3">
-        <v>6.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -422,10 +422,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>34394</v>
+        <v>34759</v>
       </c>
       <c r="C4">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -433,10 +433,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>34425</v>
+        <v>34790</v>
       </c>
       <c r="C5">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -444,10 +444,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>34455</v>
+        <v>34820</v>
       </c>
       <c r="C6">
-        <v>6.5</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -455,10 +455,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>34486</v>
+        <v>34851</v>
       </c>
       <c r="C7">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -466,10 +466,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>34516</v>
+        <v>34881</v>
       </c>
       <c r="C8">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -477,10 +477,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>34547</v>
+        <v>34912</v>
       </c>
       <c r="C9">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -488,10 +488,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>34578</v>
+        <v>34943</v>
       </c>
       <c r="C10">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -499,10 +499,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>34608</v>
+        <v>34973</v>
       </c>
       <c r="C11">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>34639</v>
+        <v>35004</v>
       </c>
       <c r="C12">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -521,10 +521,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>34669</v>
+        <v>35034</v>
       </c>
       <c r="C13">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -532,10 +532,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>34700</v>
+        <v>35065</v>
       </c>
       <c r="C14">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -543,10 +543,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>34731</v>
+        <v>35096</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -554,10 +554,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>34759</v>
+        <v>35125</v>
       </c>
       <c r="C16">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -565,10 +565,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>34790</v>
+        <v>35156</v>
       </c>
       <c r="C17">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -576,10 +576,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>34820</v>
+        <v>35186</v>
       </c>
       <c r="C18">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -587,10 +587,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>34851</v>
+        <v>35217</v>
       </c>
       <c r="C19">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -598,10 +598,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>34881</v>
+        <v>35247</v>
       </c>
       <c r="C20">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -609,10 +609,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>34912</v>
+        <v>35278</v>
       </c>
       <c r="C21">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -620,10 +620,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>34943</v>
+        <v>35309</v>
       </c>
       <c r="C22">
-        <v>5.6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -631,10 +631,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>34973</v>
+        <v>35339</v>
       </c>
       <c r="C23">
-        <v>5.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -642,10 +642,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>35004</v>
+        <v>35370</v>
       </c>
       <c r="C24">
-        <v>5.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -653,10 +653,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>35034</v>
+        <v>35400</v>
       </c>
       <c r="C25">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -664,10 +664,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>35065</v>
+        <v>35431</v>
       </c>
       <c r="C26">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -675,10 +675,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>35096</v>
+        <v>35462</v>
       </c>
       <c r="C27">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -686,10 +686,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>35125</v>
+        <v>35490</v>
       </c>
       <c r="C28">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -697,10 +697,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>35156</v>
+        <v>35521</v>
       </c>
       <c r="C29">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -708,10 +708,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>35186</v>
+        <v>35551</v>
       </c>
       <c r="C30">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -719,10 +719,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>35217</v>
+        <v>35582</v>
       </c>
       <c r="C31">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -730,10 +730,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>35247</v>
+        <v>35612</v>
       </c>
       <c r="C32">
-        <v>5.4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -741,10 +741,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>35278</v>
+        <v>35643</v>
       </c>
       <c r="C33">
-        <v>5.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -752,7 +752,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>35309</v>
+        <v>35674</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -763,10 +763,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>35339</v>
+        <v>35704</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -774,7 +774,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2">
-        <v>35370</v>
+        <v>35735</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -785,10 +785,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="2">
-        <v>35400</v>
+        <v>35765</v>
       </c>
       <c r="C37">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -796,10 +796,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="2">
-        <v>35431</v>
+        <v>35796</v>
       </c>
       <c r="C38">
-        <v>4.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -807,10 +807,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="2">
-        <v>35462</v>
+        <v>35827</v>
       </c>
       <c r="C39">
-        <v>4.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -818,10 +818,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="2">
-        <v>35490</v>
+        <v>35855</v>
       </c>
       <c r="C40">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -829,10 +829,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="2">
-        <v>35521</v>
+        <v>35886</v>
       </c>
       <c r="C41">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -840,10 +840,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>35551</v>
+        <v>35916</v>
       </c>
       <c r="C42">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -851,10 +851,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="2">
-        <v>35582</v>
+        <v>35947</v>
       </c>
       <c r="C43">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -862,7 +862,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>35612</v>
+        <v>35977</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -873,10 +873,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>35643</v>
+        <v>36008</v>
       </c>
       <c r="C45">
-        <v>5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -884,10 +884,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="2">
-        <v>35674</v>
+        <v>36039</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -895,10 +895,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>35704</v>
+        <v>36069</v>
       </c>
       <c r="C47">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -906,10 +906,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="2">
-        <v>35735</v>
+        <v>36100</v>
       </c>
       <c r="C48">
-        <v>5</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -917,10 +917,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="2">
-        <v>35765</v>
+        <v>36130</v>
       </c>
       <c r="C49">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -928,10 +928,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <v>35796</v>
+        <v>36161</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -939,10 +939,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="2">
-        <v>35827</v>
+        <v>36192</v>
       </c>
       <c r="C51">
-        <v>5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -950,10 +950,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <v>35855</v>
+        <v>36220</v>
       </c>
       <c r="C52">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -961,10 +961,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="2">
-        <v>35886</v>
+        <v>36251</v>
       </c>
       <c r="C53">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -972,10 +972,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="2">
-        <v>35916</v>
+        <v>36281</v>
       </c>
       <c r="C54">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -983,10 +983,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="2">
-        <v>35947</v>
+        <v>36312</v>
       </c>
       <c r="C55">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -994,7 +994,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="2">
-        <v>35977</v>
+        <v>36342</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1005,10 +1005,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="2">
-        <v>36008</v>
+        <v>36373</v>
       </c>
       <c r="C57">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1016,10 +1016,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="2">
-        <v>36039</v>
+        <v>36404</v>
       </c>
       <c r="C58">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1027,10 +1027,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="2">
-        <v>36069</v>
+        <v>36434</v>
       </c>
       <c r="C59">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1038,10 +1038,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="2">
-        <v>36100</v>
+        <v>36465</v>
       </c>
       <c r="C60">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1049,10 +1049,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="2">
-        <v>36130</v>
+        <v>36495</v>
       </c>
       <c r="C61">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1060,10 +1060,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="2">
-        <v>36161</v>
+        <v>36526</v>
       </c>
       <c r="C62">
-        <v>4.7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1071,10 +1071,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="2">
-        <v>36192</v>
+        <v>36557</v>
       </c>
       <c r="C63">
-        <v>4.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1082,7 +1082,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="2">
-        <v>36220</v>
+        <v>36586</v>
       </c>
       <c r="C64">
         <v>4.9</v>
@@ -1093,10 +1093,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>36251</v>
+        <v>36617</v>
       </c>
       <c r="C65">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1104,10 +1104,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="2">
-        <v>36281</v>
+        <v>36647</v>
       </c>
       <c r="C66">
-        <v>4.7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1115,10 +1115,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="2">
-        <v>36312</v>
+        <v>36678</v>
       </c>
       <c r="C67">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1126,10 +1126,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>36342</v>
+        <v>36708</v>
       </c>
       <c r="C68">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1137,10 +1137,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="2">
-        <v>36373</v>
+        <v>36739</v>
       </c>
       <c r="C69">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1148,10 +1148,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="2">
-        <v>36404</v>
+        <v>36770</v>
       </c>
       <c r="C70">
-        <v>4.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1159,10 +1159,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="2">
-        <v>36434</v>
+        <v>36800</v>
       </c>
       <c r="C71">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1170,10 +1170,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="2">
-        <v>36465</v>
+        <v>36831</v>
       </c>
       <c r="C72">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1181,10 +1181,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="2">
-        <v>36495</v>
+        <v>36861</v>
       </c>
       <c r="C73">
-        <v>4.4</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1192,10 +1192,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="2">
-        <v>36526</v>
+        <v>36892</v>
       </c>
       <c r="C74">
-        <v>5</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1203,10 +1203,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="2">
-        <v>36557</v>
+        <v>36923</v>
       </c>
       <c r="C75">
-        <v>5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1214,10 +1214,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="2">
-        <v>36586</v>
+        <v>36951</v>
       </c>
       <c r="C76">
-        <v>4.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1225,7 +1225,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="2">
-        <v>36617</v>
+        <v>36982</v>
       </c>
       <c r="C77">
         <v>4.9</v>
@@ -1236,7 +1236,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="2">
-        <v>36647</v>
+        <v>37012</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -1247,10 +1247,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="2">
-        <v>36678</v>
+        <v>37043</v>
       </c>
       <c r="C79">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1258,10 +1258,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="2">
-        <v>36708</v>
+        <v>37073</v>
       </c>
       <c r="C80">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1269,10 +1269,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="2">
-        <v>36739</v>
+        <v>37104</v>
       </c>
       <c r="C81">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1280,10 +1280,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="2">
-        <v>36770</v>
+        <v>37135</v>
       </c>
       <c r="C82">
-        <v>5</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1291,10 +1291,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="2">
-        <v>36800</v>
+        <v>37165</v>
       </c>
       <c r="C83">
-        <v>5.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1302,10 +1302,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="2">
-        <v>36831</v>
+        <v>37196</v>
       </c>
       <c r="C84">
-        <v>5.6</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1313,10 +1313,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="2">
-        <v>36861</v>
+        <v>37226</v>
       </c>
       <c r="C85">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1324,10 +1324,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="2">
-        <v>36892</v>
+        <v>37257</v>
       </c>
       <c r="C86">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1335,10 +1335,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="2">
-        <v>36923</v>
+        <v>37288</v>
       </c>
       <c r="C87">
-        <v>4.9</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1346,10 +1346,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="2">
-        <v>36951</v>
+        <v>37316</v>
       </c>
       <c r="C88">
-        <v>5</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1357,10 +1357,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="2">
-        <v>36982</v>
+        <v>37347</v>
       </c>
       <c r="C89">
-        <v>4.9</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1368,10 +1368,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="2">
-        <v>37012</v>
+        <v>37377</v>
       </c>
       <c r="C90">
-        <v>5</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1379,10 +1379,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="2">
-        <v>37043</v>
+        <v>37408</v>
       </c>
       <c r="C91">
-        <v>4.8</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1390,10 +1390,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="2">
-        <v>37073</v>
+        <v>37438</v>
       </c>
       <c r="C92">
-        <v>4.8</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1401,10 +1401,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="2">
-        <v>37104</v>
+        <v>37469</v>
       </c>
       <c r="C93">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1412,10 +1412,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="2">
-        <v>37135</v>
+        <v>37500</v>
       </c>
       <c r="C94">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1423,10 +1423,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="2">
-        <v>37165</v>
+        <v>37530</v>
       </c>
       <c r="C95">
-        <v>6</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1434,10 +1434,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="2">
-        <v>37196</v>
+        <v>37561</v>
       </c>
       <c r="C96">
-        <v>6</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1445,10 +1445,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="2">
-        <v>37226</v>
+        <v>37591</v>
       </c>
       <c r="C97">
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1456,10 +1456,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="2">
-        <v>37257</v>
+        <v>37622</v>
       </c>
       <c r="C98">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1467,10 +1467,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="2">
-        <v>37288</v>
+        <v>37653</v>
       </c>
       <c r="C99">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1478,10 +1478,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="2">
-        <v>37316</v>
+        <v>37681</v>
       </c>
       <c r="C100">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1489,10 +1489,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="2">
-        <v>37347</v>
+        <v>37712</v>
       </c>
       <c r="C101">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1500,10 +1500,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="2">
-        <v>37377</v>
+        <v>37742</v>
       </c>
       <c r="C102">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1511,10 +1511,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="2">
-        <v>37408</v>
+        <v>37773</v>
       </c>
       <c r="C103">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1522,10 +1522,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="2">
-        <v>37438</v>
+        <v>37803</v>
       </c>
       <c r="C104">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1533,10 +1533,10 @@
         <v>103</v>
       </c>
       <c r="B105" s="2">
-        <v>37469</v>
+        <v>37834</v>
       </c>
       <c r="C105">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1544,10 +1544,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="2">
-        <v>37500</v>
+        <v>37865</v>
       </c>
       <c r="C106">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1555,10 +1555,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="2">
-        <v>37530</v>
+        <v>37895</v>
       </c>
       <c r="C107">
-        <v>6.3</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1566,10 +1566,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="2">
-        <v>37561</v>
+        <v>37926</v>
       </c>
       <c r="C108">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1577,10 +1577,10 @@
         <v>107</v>
       </c>
       <c r="B109" s="2">
-        <v>37591</v>
+        <v>37956</v>
       </c>
       <c r="C109">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1588,10 +1588,10 @@
         <v>108</v>
       </c>
       <c r="B110" s="2">
-        <v>37622</v>
+        <v>37987</v>
       </c>
       <c r="C110">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1599,10 +1599,10 @@
         <v>109</v>
       </c>
       <c r="B111" s="2">
-        <v>37653</v>
+        <v>38018</v>
       </c>
       <c r="C111">
-        <v>6.3</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1610,10 +1610,10 @@
         <v>110</v>
       </c>
       <c r="B112" s="2">
-        <v>37681</v>
+        <v>38047</v>
       </c>
       <c r="C112">
-        <v>6.3</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1621,10 +1621,10 @@
         <v>111</v>
       </c>
       <c r="B113" s="2">
-        <v>37712</v>
+        <v>38078</v>
       </c>
       <c r="C113">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1632,10 +1632,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="2">
-        <v>37742</v>
+        <v>38108</v>
       </c>
       <c r="C114">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1643,10 +1643,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="2">
-        <v>37773</v>
+        <v>38139</v>
       </c>
       <c r="C115">
-        <v>6.2</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1654,10 +1654,10 @@
         <v>114</v>
       </c>
       <c r="B116" s="2">
-        <v>37803</v>
+        <v>38169</v>
       </c>
       <c r="C116">
-        <v>6.3</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1665,10 +1665,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="2">
-        <v>37834</v>
+        <v>38200</v>
       </c>
       <c r="C117">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1676,10 +1676,10 @@
         <v>116</v>
       </c>
       <c r="B118" s="2">
-        <v>37865</v>
+        <v>38231</v>
       </c>
       <c r="C118">
-        <v>7</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1687,10 +1687,10 @@
         <v>117</v>
       </c>
       <c r="B119" s="2">
-        <v>37895</v>
+        <v>38261</v>
       </c>
       <c r="C119">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1698,10 +1698,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="2">
-        <v>37926</v>
+        <v>38292</v>
       </c>
       <c r="C120">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1709,10 +1709,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="2">
-        <v>37956</v>
+        <v>38322</v>
       </c>
       <c r="C121">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1720,10 +1720,10 @@
         <v>120</v>
       </c>
       <c r="B122" s="2">
-        <v>37987</v>
+        <v>38353</v>
       </c>
       <c r="C122">
-        <v>7.3</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1731,10 +1731,10 @@
         <v>121</v>
       </c>
       <c r="B123" s="2">
-        <v>38018</v>
+        <v>38384</v>
       </c>
       <c r="C123">
-        <v>7.2</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1742,10 +1742,10 @@
         <v>122</v>
       </c>
       <c r="B124" s="2">
-        <v>38047</v>
+        <v>38412</v>
       </c>
       <c r="C124">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1753,10 +1753,10 @@
         <v>123</v>
       </c>
       <c r="B125" s="2">
-        <v>38078</v>
+        <v>38443</v>
       </c>
       <c r="C125">
-        <v>7.2</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1764,10 +1764,10 @@
         <v>124</v>
       </c>
       <c r="B126" s="2">
-        <v>38108</v>
+        <v>38473</v>
       </c>
       <c r="C126">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1775,10 +1775,10 @@
         <v>125</v>
       </c>
       <c r="B127" s="2">
-        <v>38139</v>
+        <v>38504</v>
       </c>
       <c r="C127">
-        <v>7.3</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1786,10 +1786,10 @@
         <v>126</v>
       </c>
       <c r="B128" s="2">
-        <v>38169</v>
+        <v>38534</v>
       </c>
       <c r="C128">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1797,10 +1797,10 @@
         <v>127</v>
       </c>
       <c r="B129" s="2">
-        <v>38200</v>
+        <v>38565</v>
       </c>
       <c r="C129">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1808,10 +1808,10 @@
         <v>128</v>
       </c>
       <c r="B130" s="2">
-        <v>38231</v>
+        <v>38596</v>
       </c>
       <c r="C130">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1819,10 +1819,10 @@
         <v>129</v>
       </c>
       <c r="B131" s="2">
-        <v>38261</v>
+        <v>38626</v>
       </c>
       <c r="C131">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1830,10 +1830,10 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <v>38292</v>
+        <v>38657</v>
       </c>
       <c r="C132">
-        <v>6.8</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1841,10 +1841,10 @@
         <v>131</v>
       </c>
       <c r="B133" s="2">
-        <v>38322</v>
+        <v>38687</v>
       </c>
       <c r="C133">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1852,10 +1852,10 @@
         <v>132</v>
       </c>
       <c r="B134" s="2">
-        <v>38353</v>
+        <v>38718</v>
       </c>
       <c r="C134">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1863,10 +1863,10 @@
         <v>133</v>
       </c>
       <c r="B135" s="2">
-        <v>38384</v>
+        <v>38749</v>
       </c>
       <c r="C135">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1874,10 +1874,10 @@
         <v>134</v>
       </c>
       <c r="B136" s="2">
-        <v>38412</v>
+        <v>38777</v>
       </c>
       <c r="C136">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1885,10 +1885,10 @@
         <v>135</v>
       </c>
       <c r="B137" s="2">
-        <v>38443</v>
+        <v>38808</v>
       </c>
       <c r="C137">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1896,10 +1896,10 @@
         <v>136</v>
       </c>
       <c r="B138" s="2">
-        <v>38473</v>
+        <v>38838</v>
       </c>
       <c r="C138">
-        <v>6.4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1907,10 +1907,10 @@
         <v>137</v>
       </c>
       <c r="B139" s="2">
-        <v>38504</v>
+        <v>38869</v>
       </c>
       <c r="C139">
-        <v>6.3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1918,10 +1918,10 @@
         <v>138</v>
       </c>
       <c r="B140" s="2">
-        <v>38534</v>
+        <v>38899</v>
       </c>
       <c r="C140">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1929,10 +1929,10 @@
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>38565</v>
+        <v>38930</v>
       </c>
       <c r="C141">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1940,10 +1940,10 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>38596</v>
+        <v>38961</v>
       </c>
       <c r="C142">
-        <v>6.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1951,10 +1951,10 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>38626</v>
+        <v>38991</v>
       </c>
       <c r="C143">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1962,10 +1962,10 @@
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>38657</v>
+        <v>39022</v>
       </c>
       <c r="C144">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1973,10 +1973,10 @@
         <v>143</v>
       </c>
       <c r="B145" s="2">
-        <v>38687</v>
+        <v>39052</v>
       </c>
       <c r="C145">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1984,10 +1984,10 @@
         <v>144</v>
       </c>
       <c r="B146" s="2">
-        <v>38718</v>
+        <v>39083</v>
       </c>
       <c r="C146">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1995,10 +1995,10 @@
         <v>145</v>
       </c>
       <c r="B147" s="2">
-        <v>38749</v>
+        <v>39114</v>
       </c>
       <c r="C147">
-        <v>6.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2006,7 +2006,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="2">
-        <v>38777</v>
+        <v>39142</v>
       </c>
       <c r="C148">
         <v>6.1</v>
@@ -2017,10 +2017,10 @@
         <v>147</v>
       </c>
       <c r="B149" s="2">
-        <v>38808</v>
+        <v>39173</v>
       </c>
       <c r="C149">
-        <v>6.1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2028,7 +2028,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="2">
-        <v>38838</v>
+        <v>39203</v>
       </c>
       <c r="C150">
         <v>6</v>
@@ -2039,10 +2039,10 @@
         <v>149</v>
       </c>
       <c r="B151" s="2">
-        <v>38869</v>
+        <v>39234</v>
       </c>
       <c r="C151">
-        <v>6</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2050,10 +2050,10 @@
         <v>150</v>
       </c>
       <c r="B152" s="2">
-        <v>38899</v>
+        <v>39264</v>
       </c>
       <c r="C152">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2061,10 +2061,10 @@
         <v>151</v>
       </c>
       <c r="B153" s="2">
-        <v>38930</v>
+        <v>39295</v>
       </c>
       <c r="C153">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2072,10 +2072,10 @@
         <v>152</v>
       </c>
       <c r="B154" s="2">
-        <v>38961</v>
+        <v>39326</v>
       </c>
       <c r="C154">
-        <v>6</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2083,10 +2083,10 @@
         <v>153</v>
       </c>
       <c r="B155" s="2">
-        <v>38991</v>
+        <v>39356</v>
       </c>
       <c r="C155">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2094,10 +2094,10 @@
         <v>154</v>
       </c>
       <c r="B156" s="2">
-        <v>39022</v>
+        <v>39387</v>
       </c>
       <c r="C156">
-        <v>6.3</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2105,10 +2105,10 @@
         <v>155</v>
       </c>
       <c r="B157" s="2">
-        <v>39052</v>
+        <v>39417</v>
       </c>
       <c r="C157">
-        <v>6.3</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2116,7 +2116,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="2">
-        <v>39083</v>
+        <v>39448</v>
       </c>
       <c r="C158">
         <v>5.9</v>
@@ -2127,10 +2127,10 @@
         <v>157</v>
       </c>
       <c r="B159" s="2">
-        <v>39114</v>
+        <v>39479</v>
       </c>
       <c r="C159">
-        <v>6</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2138,10 +2138,10 @@
         <v>158</v>
       </c>
       <c r="B160" s="2">
-        <v>39142</v>
+        <v>39508</v>
       </c>
       <c r="C160">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2149,10 +2149,10 @@
         <v>159</v>
       </c>
       <c r="B161" s="2">
-        <v>39173</v>
+        <v>39539</v>
       </c>
       <c r="C161">
-        <v>6</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2160,10 +2160,10 @@
         <v>160</v>
       </c>
       <c r="B162" s="2">
-        <v>39203</v>
+        <v>39569</v>
       </c>
       <c r="C162">
-        <v>6</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2171,10 +2171,10 @@
         <v>161</v>
       </c>
       <c r="B163" s="2">
-        <v>39234</v>
+        <v>39600</v>
       </c>
       <c r="C163">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2182,7 +2182,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="2">
-        <v>39264</v>
+        <v>39630</v>
       </c>
       <c r="C164">
         <v>5.7</v>
@@ -2193,10 +2193,10 @@
         <v>163</v>
       </c>
       <c r="B165" s="2">
-        <v>39295</v>
+        <v>39661</v>
       </c>
       <c r="C165">
-        <v>5.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2204,10 +2204,10 @@
         <v>164</v>
       </c>
       <c r="B166" s="2">
-        <v>39326</v>
+        <v>39692</v>
       </c>
       <c r="C166">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2215,10 +2215,10 @@
         <v>165</v>
       </c>
       <c r="B167" s="2">
-        <v>39356</v>
+        <v>39722</v>
       </c>
       <c r="C167">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2226,10 +2226,10 @@
         <v>166</v>
       </c>
       <c r="B168" s="2">
-        <v>39387</v>
+        <v>39753</v>
       </c>
       <c r="C168">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2237,7 +2237,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="2">
-        <v>39417</v>
+        <v>39783</v>
       </c>
       <c r="C169">
         <v>5.6</v>
@@ -2248,10 +2248,10 @@
         <v>168</v>
       </c>
       <c r="B170" s="2">
-        <v>39448</v>
+        <v>39814</v>
       </c>
       <c r="C170">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2259,10 +2259,10 @@
         <v>169</v>
       </c>
       <c r="B171" s="2">
-        <v>39479</v>
+        <v>39845</v>
       </c>
       <c r="C171">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2270,10 +2270,10 @@
         <v>170</v>
       </c>
       <c r="B172" s="2">
-        <v>39508</v>
+        <v>39873</v>
       </c>
       <c r="C172">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2281,10 +2281,10 @@
         <v>171</v>
       </c>
       <c r="B173" s="2">
-        <v>39539</v>
+        <v>39904</v>
       </c>
       <c r="C173">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2292,10 +2292,10 @@
         <v>172</v>
       </c>
       <c r="B174" s="2">
-        <v>39569</v>
+        <v>39934</v>
       </c>
       <c r="C174">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2303,10 +2303,10 @@
         <v>173</v>
       </c>
       <c r="B175" s="2">
-        <v>39600</v>
+        <v>39965</v>
       </c>
       <c r="C175">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2314,10 +2314,10 @@
         <v>174</v>
       </c>
       <c r="B176" s="2">
-        <v>39630</v>
+        <v>39995</v>
       </c>
       <c r="C176">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2325,10 +2325,10 @@
         <v>175</v>
       </c>
       <c r="B177" s="2">
-        <v>39661</v>
+        <v>40026</v>
       </c>
       <c r="C177">
-        <v>6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2336,10 +2336,10 @@
         <v>176</v>
       </c>
       <c r="B178" s="2">
-        <v>39692</v>
+        <v>40057</v>
       </c>
       <c r="C178">
-        <v>6.1</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2347,10 +2347,10 @@
         <v>177</v>
       </c>
       <c r="B179" s="2">
-        <v>39722</v>
+        <v>40087</v>
       </c>
       <c r="C179">
-        <v>5.9</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2358,10 +2358,10 @@
         <v>178</v>
       </c>
       <c r="B180" s="2">
-        <v>39753</v>
+        <v>40118</v>
       </c>
       <c r="C180">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2369,10 +2369,10 @@
         <v>179</v>
       </c>
       <c r="B181" s="2">
-        <v>39783</v>
+        <v>40148</v>
       </c>
       <c r="C181">
-        <v>5.6</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2380,10 +2380,10 @@
         <v>180</v>
       </c>
       <c r="B182" s="2">
-        <v>39814</v>
+        <v>40179</v>
       </c>
       <c r="C182">
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2391,10 +2391,10 @@
         <v>181</v>
       </c>
       <c r="B183" s="2">
-        <v>39845</v>
+        <v>40210</v>
       </c>
       <c r="C183">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2402,10 +2402,10 @@
         <v>182</v>
       </c>
       <c r="B184" s="2">
-        <v>39873</v>
+        <v>40238</v>
       </c>
       <c r="C184">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2413,10 +2413,10 @@
         <v>183</v>
       </c>
       <c r="B185" s="2">
-        <v>39904</v>
+        <v>40269</v>
       </c>
       <c r="C185">
-        <v>5.4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2424,10 +2424,10 @@
         <v>184</v>
       </c>
       <c r="B186" s="2">
-        <v>39934</v>
+        <v>40299</v>
       </c>
       <c r="C186">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2435,10 +2435,10 @@
         <v>185</v>
       </c>
       <c r="B187" s="2">
-        <v>39965</v>
+        <v>40330</v>
       </c>
       <c r="C187">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2446,10 +2446,10 @@
         <v>186</v>
       </c>
       <c r="B188" s="2">
-        <v>39995</v>
+        <v>40360</v>
       </c>
       <c r="C188">
-        <v>5.6</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2457,10 +2457,10 @@
         <v>187</v>
       </c>
       <c r="B189" s="2">
-        <v>40026</v>
+        <v>40391</v>
       </c>
       <c r="C189">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2468,10 +2468,10 @@
         <v>188</v>
       </c>
       <c r="B190" s="2">
-        <v>40057</v>
+        <v>40422</v>
       </c>
       <c r="C190">
-        <v>5.1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2479,10 +2479,10 @@
         <v>189</v>
       </c>
       <c r="B191" s="2">
-        <v>40087</v>
+        <v>40452</v>
       </c>
       <c r="C191">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2490,10 +2490,10 @@
         <v>190</v>
       </c>
       <c r="B192" s="2">
-        <v>40118</v>
+        <v>40483</v>
       </c>
       <c r="C192">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2501,10 +2501,10 @@
         <v>191</v>
       </c>
       <c r="B193" s="2">
-        <v>40148</v>
+        <v>40513</v>
       </c>
       <c r="C193">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2512,10 +2512,10 @@
         <v>192</v>
       </c>
       <c r="B194" s="2">
-        <v>40179</v>
+        <v>40544</v>
       </c>
       <c r="C194">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2523,10 +2523,10 @@
         <v>193</v>
       </c>
       <c r="B195" s="2">
-        <v>40210</v>
+        <v>40575</v>
       </c>
       <c r="C195">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2534,10 +2534,10 @@
         <v>194</v>
       </c>
       <c r="B196" s="2">
-        <v>40238</v>
+        <v>40603</v>
       </c>
       <c r="C196">
-        <v>4.9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2545,10 +2545,10 @@
         <v>195</v>
       </c>
       <c r="B197" s="2">
-        <v>40269</v>
+        <v>40634</v>
       </c>
       <c r="C197">
-        <v>5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2556,10 +2556,10 @@
         <v>196</v>
       </c>
       <c r="B198" s="2">
-        <v>40299</v>
+        <v>40664</v>
       </c>
       <c r="C198">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2567,10 +2567,10 @@
         <v>197</v>
       </c>
       <c r="B199" s="2">
-        <v>40330</v>
+        <v>40695</v>
       </c>
       <c r="C199">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2578,10 +2578,10 @@
         <v>198</v>
       </c>
       <c r="B200" s="2">
-        <v>40360</v>
+        <v>40725</v>
       </c>
       <c r="C200">
-        <v>4.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2589,10 +2589,10 @@
         <v>199</v>
       </c>
       <c r="B201" s="2">
-        <v>40391</v>
+        <v>40756</v>
       </c>
       <c r="C201">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2600,10 +2600,10 @@
         <v>200</v>
       </c>
       <c r="B202" s="2">
-        <v>40422</v>
+        <v>40787</v>
       </c>
       <c r="C202">
-        <v>4</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2611,10 +2611,10 @@
         <v>201</v>
       </c>
       <c r="B203" s="2">
-        <v>40452</v>
+        <v>40817</v>
       </c>
       <c r="C203">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2622,10 +2622,10 @@
         <v>202</v>
       </c>
       <c r="B204" s="2">
-        <v>40483</v>
+        <v>40848</v>
       </c>
       <c r="C204">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2633,10 +2633,10 @@
         <v>203</v>
       </c>
       <c r="B205" s="2">
-        <v>40513</v>
+        <v>40878</v>
       </c>
       <c r="C205">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2644,10 +2644,10 @@
         <v>204</v>
       </c>
       <c r="B206" s="2">
-        <v>40544</v>
+        <v>40909</v>
       </c>
       <c r="C206">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2655,10 +2655,10 @@
         <v>205</v>
       </c>
       <c r="B207" s="2">
-        <v>40575</v>
+        <v>40940</v>
       </c>
       <c r="C207">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2666,10 +2666,10 @@
         <v>206</v>
       </c>
       <c r="B208" s="2">
-        <v>40603</v>
+        <v>40969</v>
       </c>
       <c r="C208">
-        <v>4</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2677,10 +2677,10 @@
         <v>207</v>
       </c>
       <c r="B209" s="2">
-        <v>40634</v>
+        <v>41000</v>
       </c>
       <c r="C209">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2688,10 +2688,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="2">
-        <v>40664</v>
+        <v>41030</v>
       </c>
       <c r="C210">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2699,10 +2699,10 @@
         <v>209</v>
       </c>
       <c r="B211" s="2">
-        <v>40695</v>
+        <v>41061</v>
       </c>
       <c r="C211">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2710,10 +2710,10 @@
         <v>210</v>
       </c>
       <c r="B212" s="2">
-        <v>40725</v>
+        <v>41091</v>
       </c>
       <c r="C212">
-        <v>4</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2721,10 +2721,10 @@
         <v>211</v>
       </c>
       <c r="B213" s="2">
-        <v>40756</v>
+        <v>41122</v>
       </c>
       <c r="C213">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2732,10 +2732,10 @@
         <v>212</v>
       </c>
       <c r="B214" s="2">
-        <v>40787</v>
+        <v>41153</v>
       </c>
       <c r="C214">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2743,10 +2743,10 @@
         <v>213</v>
       </c>
       <c r="B215" s="2">
-        <v>40817</v>
+        <v>41183</v>
       </c>
       <c r="C215">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2754,10 +2754,10 @@
         <v>214</v>
       </c>
       <c r="B216" s="2">
-        <v>40848</v>
+        <v>41214</v>
       </c>
       <c r="C216">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2765,10 +2765,10 @@
         <v>215</v>
       </c>
       <c r="B217" s="2">
-        <v>40878</v>
+        <v>41244</v>
       </c>
       <c r="C217">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2776,10 +2776,10 @@
         <v>216</v>
       </c>
       <c r="B218" s="2">
-        <v>40909</v>
+        <v>41275</v>
       </c>
       <c r="C218">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2787,10 +2787,10 @@
         <v>217</v>
       </c>
       <c r="B219" s="2">
-        <v>40940</v>
+        <v>41306</v>
       </c>
       <c r="C219">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2798,10 +2798,10 @@
         <v>218</v>
       </c>
       <c r="B220" s="2">
-        <v>40969</v>
+        <v>41334</v>
       </c>
       <c r="C220">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2809,10 +2809,10 @@
         <v>219</v>
       </c>
       <c r="B221" s="2">
-        <v>41000</v>
+        <v>41365</v>
       </c>
       <c r="C221">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2820,10 +2820,10 @@
         <v>220</v>
       </c>
       <c r="B222" s="2">
-        <v>41030</v>
+        <v>41395</v>
       </c>
       <c r="C222">
-        <v>4.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2831,10 +2831,10 @@
         <v>221</v>
       </c>
       <c r="B223" s="2">
-        <v>41061</v>
+        <v>41426</v>
       </c>
       <c r="C223">
-        <v>4.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2842,10 +2842,10 @@
         <v>222</v>
       </c>
       <c r="B224" s="2">
-        <v>41091</v>
+        <v>41456</v>
       </c>
       <c r="C224">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2853,10 +2853,10 @@
         <v>223</v>
       </c>
       <c r="B225" s="2">
-        <v>41122</v>
+        <v>41487</v>
       </c>
       <c r="C225">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2864,10 +2864,10 @@
         <v>224</v>
       </c>
       <c r="B226" s="2">
-        <v>41153</v>
+        <v>41518</v>
       </c>
       <c r="C226">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2875,10 +2875,10 @@
         <v>225</v>
       </c>
       <c r="B227" s="2">
-        <v>41183</v>
+        <v>41548</v>
       </c>
       <c r="C227">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2886,10 +2886,10 @@
         <v>226</v>
       </c>
       <c r="B228" s="2">
-        <v>41214</v>
+        <v>41579</v>
       </c>
       <c r="C228">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2897,10 +2897,10 @@
         <v>227</v>
       </c>
       <c r="B229" s="2">
-        <v>41244</v>
+        <v>41609</v>
       </c>
       <c r="C229">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2908,10 +2908,10 @@
         <v>228</v>
       </c>
       <c r="B230" s="2">
-        <v>41275</v>
+        <v>41640</v>
       </c>
       <c r="C230">
-        <v>4.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2919,10 +2919,10 @@
         <v>229</v>
       </c>
       <c r="B231" s="2">
-        <v>41306</v>
+        <v>41671</v>
       </c>
       <c r="C231">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2930,10 +2930,10 @@
         <v>230</v>
       </c>
       <c r="B232" s="2">
-        <v>41334</v>
+        <v>41699</v>
       </c>
       <c r="C232">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2941,10 +2941,10 @@
         <v>231</v>
       </c>
       <c r="B233" s="2">
-        <v>41365</v>
+        <v>41730</v>
       </c>
       <c r="C233">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2952,10 +2952,10 @@
         <v>232</v>
       </c>
       <c r="B234" s="2">
-        <v>41395</v>
+        <v>41760</v>
       </c>
       <c r="C234">
-        <v>4</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2963,10 +2963,10 @@
         <v>233</v>
       </c>
       <c r="B235" s="2">
-        <v>41426</v>
+        <v>41791</v>
       </c>
       <c r="C235">
-        <v>4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2974,10 +2974,10 @@
         <v>234</v>
       </c>
       <c r="B236" s="2">
-        <v>41456</v>
+        <v>41821</v>
       </c>
       <c r="C236">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2985,10 +2985,10 @@
         <v>235</v>
       </c>
       <c r="B237" s="2">
-        <v>41487</v>
+        <v>41852</v>
       </c>
       <c r="C237">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2996,7 +2996,7 @@
         <v>236</v>
       </c>
       <c r="B238" s="2">
-        <v>41518</v>
+        <v>41883</v>
       </c>
       <c r="C238">
         <v>3.3</v>
@@ -3007,7 +3007,7 @@
         <v>237</v>
       </c>
       <c r="B239" s="2">
-        <v>41548</v>
+        <v>41913</v>
       </c>
       <c r="C239">
         <v>3.4</v>
@@ -3018,10 +3018,10 @@
         <v>238</v>
       </c>
       <c r="B240" s="2">
-        <v>41579</v>
+        <v>41944</v>
       </c>
       <c r="C240">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3029,10 +3029,10 @@
         <v>239</v>
       </c>
       <c r="B241" s="2">
-        <v>41609</v>
+        <v>41974</v>
       </c>
       <c r="C241">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3040,10 +3040,10 @@
         <v>240</v>
       </c>
       <c r="B242" s="2">
-        <v>41640</v>
+        <v>42005</v>
       </c>
       <c r="C242">
-        <v>3</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3051,10 +3051,10 @@
         <v>241</v>
       </c>
       <c r="B243" s="2">
-        <v>41671</v>
+        <v>42036</v>
       </c>
       <c r="C243">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3062,10 +3062,10 @@
         <v>242</v>
       </c>
       <c r="B244" s="2">
-        <v>41699</v>
+        <v>42064</v>
       </c>
       <c r="C244">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3073,10 +3073,10 @@
         <v>243</v>
       </c>
       <c r="B245" s="2">
-        <v>41730</v>
+        <v>42095</v>
       </c>
       <c r="C245">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3084,10 +3084,10 @@
         <v>244</v>
       </c>
       <c r="B246" s="2">
-        <v>41760</v>
+        <v>42125</v>
       </c>
       <c r="C246">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3095,10 +3095,10 @@
         <v>245</v>
       </c>
       <c r="B247" s="2">
-        <v>41791</v>
+        <v>42156</v>
       </c>
       <c r="C247">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3106,10 +3106,10 @@
         <v>246</v>
       </c>
       <c r="B248" s="2">
-        <v>41821</v>
+        <v>42186</v>
       </c>
       <c r="C248">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3117,10 +3117,10 @@
         <v>247</v>
       </c>
       <c r="B249" s="2">
-        <v>41852</v>
+        <v>42217</v>
       </c>
       <c r="C249">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3128,10 +3128,10 @@
         <v>248</v>
       </c>
       <c r="B250" s="2">
-        <v>41883</v>
+        <v>42248</v>
       </c>
       <c r="C250">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3139,10 +3139,10 @@
         <v>249</v>
       </c>
       <c r="B251" s="2">
-        <v>41913</v>
+        <v>42278</v>
       </c>
       <c r="C251">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3150,10 +3150,10 @@
         <v>250</v>
       </c>
       <c r="B252" s="2">
-        <v>41944</v>
+        <v>42309</v>
       </c>
       <c r="C252">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3161,10 +3161,10 @@
         <v>251</v>
       </c>
       <c r="B253" s="2">
-        <v>41974</v>
+        <v>42339</v>
       </c>
       <c r="C253">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3172,10 +3172,10 @@
         <v>252</v>
       </c>
       <c r="B254" s="2">
-        <v>42005</v>
+        <v>42370</v>
       </c>
       <c r="C254">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3183,10 +3183,10 @@
         <v>253</v>
       </c>
       <c r="B255" s="2">
-        <v>42036</v>
+        <v>42401</v>
       </c>
       <c r="C255">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3194,10 +3194,10 @@
         <v>254</v>
       </c>
       <c r="B256" s="2">
-        <v>42064</v>
+        <v>42430</v>
       </c>
       <c r="C256">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3205,10 +3205,10 @@
         <v>255</v>
       </c>
       <c r="B257" s="2">
-        <v>42095</v>
+        <v>42461</v>
       </c>
       <c r="C257">
-        <v>3.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3216,10 +3216,10 @@
         <v>256</v>
       </c>
       <c r="B258" s="2">
-        <v>42125</v>
+        <v>42491</v>
       </c>
       <c r="C258">
-        <v>3.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3227,10 +3227,10 @@
         <v>257</v>
       </c>
       <c r="B259" s="2">
-        <v>42156</v>
+        <v>42522</v>
       </c>
       <c r="C259">
-        <v>3.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3238,10 +3238,10 @@
         <v>258</v>
       </c>
       <c r="B260" s="2">
-        <v>42186</v>
+        <v>42552</v>
       </c>
       <c r="C260">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3249,10 +3249,10 @@
         <v>259</v>
       </c>
       <c r="B261" s="2">
-        <v>42217</v>
+        <v>42583</v>
       </c>
       <c r="C261">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3260,10 +3260,10 @@
         <v>260</v>
       </c>
       <c r="B262" s="2">
-        <v>42248</v>
+        <v>42614</v>
       </c>
       <c r="C262">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3271,10 +3271,10 @@
         <v>261</v>
       </c>
       <c r="B263" s="2">
-        <v>42278</v>
+        <v>42644</v>
       </c>
       <c r="C263">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3282,10 +3282,10 @@
         <v>262</v>
       </c>
       <c r="B264" s="2">
-        <v>42309</v>
+        <v>42675</v>
       </c>
       <c r="C264">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3293,10 +3293,10 @@
         <v>263</v>
       </c>
       <c r="B265" s="2">
-        <v>42339</v>
+        <v>42705</v>
       </c>
       <c r="C265">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3304,10 +3304,10 @@
         <v>264</v>
       </c>
       <c r="B266" s="2">
-        <v>42370</v>
+        <v>42736</v>
       </c>
       <c r="C266">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3315,10 +3315,10 @@
         <v>265</v>
       </c>
       <c r="B267" s="2">
-        <v>42401</v>
+        <v>42767</v>
       </c>
       <c r="C267">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3326,10 +3326,10 @@
         <v>266</v>
       </c>
       <c r="B268" s="2">
-        <v>42430</v>
+        <v>42795</v>
       </c>
       <c r="C268">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3337,10 +3337,10 @@
         <v>267</v>
       </c>
       <c r="B269" s="2">
-        <v>42461</v>
+        <v>42826</v>
       </c>
       <c r="C269">
-        <v>3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3348,10 +3348,10 @@
         <v>268</v>
       </c>
       <c r="B270" s="2">
-        <v>42491</v>
+        <v>42856</v>
       </c>
       <c r="C270">
-        <v>3</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3359,10 +3359,10 @@
         <v>269</v>
       </c>
       <c r="B271" s="2">
-        <v>42522</v>
+        <v>42887</v>
       </c>
       <c r="C271">
-        <v>3</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3370,10 +3370,10 @@
         <v>270</v>
       </c>
       <c r="B272" s="2">
-        <v>42552</v>
+        <v>42917</v>
       </c>
       <c r="C272">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3381,10 +3381,10 @@
         <v>271</v>
       </c>
       <c r="B273" s="2">
-        <v>42583</v>
+        <v>42948</v>
       </c>
       <c r="C273">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3392,10 +3392,10 @@
         <v>272</v>
       </c>
       <c r="B274" s="2">
-        <v>42614</v>
+        <v>42979</v>
       </c>
       <c r="C274">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3403,10 +3403,10 @@
         <v>273</v>
       </c>
       <c r="B275" s="2">
-        <v>42644</v>
+        <v>43009</v>
       </c>
       <c r="C275">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3414,10 +3414,10 @@
         <v>274</v>
       </c>
       <c r="B276" s="2">
-        <v>42675</v>
+        <v>43040</v>
       </c>
       <c r="C276">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3425,10 +3425,10 @@
         <v>275</v>
       </c>
       <c r="B277" s="2">
-        <v>42705</v>
+        <v>43070</v>
       </c>
       <c r="C277">
-        <v>2.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3436,10 +3436,10 @@
         <v>276</v>
       </c>
       <c r="B278" s="2">
-        <v>42736</v>
+        <v>43101</v>
       </c>
       <c r="C278">
-        <v>2.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3447,10 +3447,10 @@
         <v>277</v>
       </c>
       <c r="B279" s="2">
-        <v>42767</v>
+        <v>43132</v>
       </c>
       <c r="C279">
-        <v>2.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3458,10 +3458,10 @@
         <v>278</v>
       </c>
       <c r="B280" s="2">
-        <v>42795</v>
+        <v>43160</v>
       </c>
       <c r="C280">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3469,10 +3469,10 @@
         <v>279</v>
       </c>
       <c r="B281" s="2">
-        <v>42826</v>
+        <v>43191</v>
       </c>
       <c r="C281">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3480,10 +3480,10 @@
         <v>280</v>
       </c>
       <c r="B282" s="2">
-        <v>42856</v>
+        <v>43221</v>
       </c>
       <c r="C282">
-        <v>2.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3491,10 +3491,10 @@
         <v>281</v>
       </c>
       <c r="B283" s="2">
-        <v>42887</v>
+        <v>43252</v>
       </c>
       <c r="C283">
-        <v>2.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3502,10 +3502,10 @@
         <v>282</v>
       </c>
       <c r="B284" s="2">
-        <v>42917</v>
+        <v>43282</v>
       </c>
       <c r="C284">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3513,10 +3513,10 @@
         <v>283</v>
       </c>
       <c r="B285" s="2">
-        <v>42948</v>
+        <v>43313</v>
       </c>
       <c r="C285">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3524,10 +3524,10 @@
         <v>284</v>
       </c>
       <c r="B286" s="2">
-        <v>42979</v>
+        <v>43344</v>
       </c>
       <c r="C286">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3535,10 +3535,10 @@
         <v>285</v>
       </c>
       <c r="B287" s="2">
-        <v>43009</v>
+        <v>43374</v>
       </c>
       <c r="C287">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3546,10 +3546,10 @@
         <v>286</v>
       </c>
       <c r="B288" s="2">
-        <v>43040</v>
+        <v>43405</v>
       </c>
       <c r="C288">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3557,10 +3557,10 @@
         <v>287</v>
       </c>
       <c r="B289" s="2">
-        <v>43070</v>
+        <v>43435</v>
       </c>
       <c r="C289">
-        <v>2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3568,10 +3568,10 @@
         <v>288</v>
       </c>
       <c r="B290" s="2">
-        <v>43101</v>
+        <v>43466</v>
       </c>
       <c r="C290">
-        <v>2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3579,10 +3579,10 @@
         <v>289</v>
       </c>
       <c r="B291" s="2">
-        <v>43132</v>
+        <v>43497</v>
       </c>
       <c r="C291">
-        <v>2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3590,10 +3590,10 @@
         <v>290</v>
       </c>
       <c r="B292" s="2">
-        <v>43160</v>
+        <v>43525</v>
       </c>
       <c r="C292">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3601,10 +3601,10 @@
         <v>291</v>
       </c>
       <c r="B293" s="2">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="C293">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3612,10 +3612,10 @@
         <v>292</v>
       </c>
       <c r="B294" s="2">
-        <v>43221</v>
+        <v>43586</v>
       </c>
       <c r="C294">
-        <v>2</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3623,10 +3623,10 @@
         <v>293</v>
       </c>
       <c r="B295" s="2">
-        <v>43252</v>
+        <v>43617</v>
       </c>
       <c r="C295">
-        <v>2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3634,10 +3634,10 @@
         <v>294</v>
       </c>
       <c r="B296" s="2">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="C296">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3645,10 +3645,10 @@
         <v>295</v>
       </c>
       <c r="B297" s="2">
-        <v>43313</v>
+        <v>43678</v>
       </c>
       <c r="C297">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3656,10 +3656,10 @@
         <v>296</v>
       </c>
       <c r="B298" s="2">
-        <v>43344</v>
+        <v>43709</v>
       </c>
       <c r="C298">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3667,10 +3667,10 @@
         <v>297</v>
       </c>
       <c r="B299" s="2">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="C299">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3678,10 +3678,10 @@
         <v>298</v>
       </c>
       <c r="B300" s="2">
-        <v>43405</v>
+        <v>43770</v>
       </c>
       <c r="C300">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3689,10 +3689,10 @@
         <v>299</v>
       </c>
       <c r="B301" s="2">
-        <v>43435</v>
+        <v>43800</v>
       </c>
       <c r="C301">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3700,10 +3700,10 @@
         <v>300</v>
       </c>
       <c r="B302" s="2">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="C302">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3711,10 +3711,10 @@
         <v>301</v>
       </c>
       <c r="B303" s="2">
-        <v>43497</v>
+        <v>43862</v>
       </c>
       <c r="C303">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3722,10 +3722,10 @@
         <v>302</v>
       </c>
       <c r="B304" s="2">
-        <v>43525</v>
+        <v>43891</v>
       </c>
       <c r="C304">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3733,10 +3733,10 @@
         <v>303</v>
       </c>
       <c r="B305" s="2">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="C305">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3744,10 +3744,10 @@
         <v>304</v>
       </c>
       <c r="B306" s="2">
-        <v>43586</v>
+        <v>43952</v>
       </c>
       <c r="C306">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3755,10 +3755,10 @@
         <v>305</v>
       </c>
       <c r="B307" s="2">
-        <v>43617</v>
+        <v>43983</v>
       </c>
       <c r="C307">
-        <v>3.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3766,10 +3766,10 @@
         <v>306</v>
       </c>
       <c r="B308" s="2">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="C308">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3777,10 +3777,10 @@
         <v>307</v>
       </c>
       <c r="B309" s="2">
-        <v>43678</v>
+        <v>44044</v>
       </c>
       <c r="C309">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3788,10 +3788,10 @@
         <v>308</v>
       </c>
       <c r="B310" s="2">
-        <v>43709</v>
+        <v>44075</v>
       </c>
       <c r="C310">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3799,10 +3799,10 @@
         <v>309</v>
       </c>
       <c r="B311" s="2">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="C311">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3810,10 +3810,10 @@
         <v>310</v>
       </c>
       <c r="B312" s="2">
-        <v>43770</v>
+        <v>44136</v>
       </c>
       <c r="C312">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3821,10 +3821,10 @@
         <v>311</v>
       </c>
       <c r="B313" s="2">
-        <v>43800</v>
+        <v>44166</v>
       </c>
       <c r="C313">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3832,10 +3832,10 @@
         <v>312</v>
       </c>
       <c r="B314" s="2">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="C314">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3843,10 +3843,10 @@
         <v>313</v>
       </c>
       <c r="B315" s="2">
-        <v>43862</v>
+        <v>44228</v>
       </c>
       <c r="C315">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3854,10 +3854,10 @@
         <v>314</v>
       </c>
       <c r="B316" s="2">
-        <v>43891</v>
+        <v>44256</v>
       </c>
       <c r="C316">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3865,10 +3865,10 @@
         <v>315</v>
       </c>
       <c r="B317" s="2">
-        <v>43922</v>
+        <v>44287</v>
       </c>
       <c r="C317">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3876,10 +3876,10 @@
         <v>316</v>
       </c>
       <c r="B318" s="2">
-        <v>43952</v>
+        <v>44317</v>
       </c>
       <c r="C318">
-        <v>2.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3887,10 +3887,10 @@
         <v>317</v>
       </c>
       <c r="B319" s="2">
-        <v>43983</v>
+        <v>44348</v>
       </c>
       <c r="C319">
-        <v>2</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3898,10 +3898,10 @@
         <v>318</v>
       </c>
       <c r="B320" s="2">
-        <v>44013</v>
+        <v>44378</v>
       </c>
       <c r="C320">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3909,10 +3909,10 @@
         <v>319</v>
       </c>
       <c r="B321" s="2">
-        <v>44044</v>
+        <v>44409</v>
       </c>
       <c r="C321">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3920,10 +3920,10 @@
         <v>320</v>
       </c>
       <c r="B322" s="2">
-        <v>44075</v>
+        <v>44440</v>
       </c>
       <c r="C322">
-        <v>1.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3931,10 +3931,7 @@
         <v>321</v>
       </c>
       <c r="B323" s="2">
-        <v>44105</v>
-      </c>
-      <c r="C323">
-        <v>1.3</v>
+        <v>44470</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3942,10 +3939,7 @@
         <v>322</v>
       </c>
       <c r="B324" s="2">
-        <v>44136</v>
-      </c>
-      <c r="C324">
-        <v>1.3</v>
+        <v>44501</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3953,132 +3947,6 @@
         <v>323</v>
       </c>
       <c r="B325" s="2">
-        <v>44166</v>
-      </c>
-      <c r="C325">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3">
-      <c r="A326" s="1">
-        <v>324</v>
-      </c>
-      <c r="B326" s="2">
-        <v>44197</v>
-      </c>
-      <c r="C326">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3">
-      <c r="A327" s="1">
-        <v>325</v>
-      </c>
-      <c r="B327" s="2">
-        <v>44228</v>
-      </c>
-      <c r="C327">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3">
-      <c r="A328" s="1">
-        <v>326</v>
-      </c>
-      <c r="B328" s="2">
-        <v>44256</v>
-      </c>
-      <c r="C328">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3">
-      <c r="A329" s="1">
-        <v>327</v>
-      </c>
-      <c r="B329" s="2">
-        <v>44287</v>
-      </c>
-      <c r="C329">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3">
-      <c r="A330" s="1">
-        <v>328</v>
-      </c>
-      <c r="B330" s="2">
-        <v>44317</v>
-      </c>
-      <c r="C330">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3">
-      <c r="A331" s="1">
-        <v>329</v>
-      </c>
-      <c r="B331" s="2">
-        <v>44348</v>
-      </c>
-      <c r="C331">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3">
-      <c r="A332" s="1">
-        <v>330</v>
-      </c>
-      <c r="B332" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C332">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3">
-      <c r="A333" s="1">
-        <v>331</v>
-      </c>
-      <c r="B333" s="2">
-        <v>44409</v>
-      </c>
-      <c r="C333">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3">
-      <c r="A334" s="1">
-        <v>332</v>
-      </c>
-      <c r="B334" s="2">
-        <v>44440</v>
-      </c>
-      <c r="C334">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3">
-      <c r="A335" s="1">
-        <v>333</v>
-      </c>
-      <c r="B335" s="2">
-        <v>44470</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3">
-      <c r="A336" s="1">
-        <v>334</v>
-      </c>
-      <c r="B336" s="2">
-        <v>44501</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2">
-      <c r="A337" s="1">
-        <v>335</v>
-      </c>
-      <c r="B337" s="2">
         <v>44531</v>
       </c>
     </row>
